--- a/Orientation Discrimination Task/Orientation Discrimination Task.xlsx
+++ b/Orientation Discrimination Task/Orientation Discrimination Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haripriya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96BC312-093F-D540-86AA-2BEA3D3D0945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36EE4403-1CE0-4E47-9896-764E0ABDCDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{2DE6A6E6-BC3E-584E-8A07-1AC4E4605D70}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="24">
   <si>
     <t>key_resp.keys</t>
   </si>
@@ -83,9 +83,6 @@
     <t>prop fa = fa/ fa + corr rejection</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>hit</t>
   </si>
   <si>
@@ -96,6 +93,21 @@
   </si>
   <si>
     <t>cr</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-prime </t>
+  </si>
+  <si>
+    <t>z(prop hit) - z(prop fa)</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>z(prop hit) + z(prop fa)/2</t>
   </si>
 </sst>
 </file>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEB77DB-86D6-644B-9200-69D378E84934}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,10 +497,12 @@
     <col min="6" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" customWidth="1"/>
     <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
     <col min="13" max="13" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,19 +514,19 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -527,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -538,8 +552,17 @@
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -554,10 +577,16 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -568,8 +597,20 @@
         <v>2</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -584,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -598,8 +639,15 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <f>J4/(J4+K4)</f>
+        <v>0.73584905660377353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -613,8 +661,15 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <f>J5/(J5+K5)</f>
+        <v>0.25531914893617019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -625,8 +680,11 @@
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -640,8 +698,15 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <f>NORMSINV(J7) - NORMSINV(J8)</f>
+        <v>1.2884444486955287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -652,8 +717,18 @@
         <v>0</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <f>-NORMSINV(J7) +NORMSINV(J8)/2</f>
+        <v>-0.95952238647959986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -668,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -683,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -694,8 +769,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -710,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -781,6 +859,9 @@
         <v>0</v>
       </c>
       <c r="D20" s="2"/>
+      <c r="F20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -793,6 +874,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="2"/>
+      <c r="F21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -805,6 +889,9 @@
         <v>2</v>
       </c>
       <c r="D22" s="2"/>
+      <c r="G22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1027,6 +1114,9 @@
         <v>0</v>
       </c>
       <c r="D37" s="2"/>
+      <c r="G37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -1039,6 +1129,9 @@
         <v>-4</v>
       </c>
       <c r="D38" s="2"/>
+      <c r="G38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -1081,6 +1174,9 @@
         <v>-4</v>
       </c>
       <c r="D41" s="2"/>
+      <c r="G41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -1093,6 +1189,9 @@
         <v>0</v>
       </c>
       <c r="D42" s="2"/>
+      <c r="G42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -1120,6 +1219,9 @@
         <v>0</v>
       </c>
       <c r="D44" s="2"/>
+      <c r="F44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -1162,6 +1264,9 @@
         <v>0</v>
       </c>
       <c r="D47" s="2"/>
+      <c r="F47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
@@ -1189,6 +1294,9 @@
         <v>-3</v>
       </c>
       <c r="D49" s="2"/>
+      <c r="G49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
@@ -1306,6 +1414,9 @@
         <v>0</v>
       </c>
       <c r="D57" s="2"/>
+      <c r="F57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -1333,6 +1444,9 @@
         <v>-2</v>
       </c>
       <c r="D59" s="2"/>
+      <c r="G59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
@@ -1450,6 +1564,9 @@
         <v>0</v>
       </c>
       <c r="D67" s="2"/>
+      <c r="F67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
@@ -1462,6 +1579,9 @@
         <v>0</v>
       </c>
       <c r="D68" s="2"/>
+      <c r="F68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
@@ -1474,6 +1594,9 @@
         <v>-2</v>
       </c>
       <c r="D69" s="2"/>
+      <c r="G69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -1486,6 +1609,9 @@
         <v>0</v>
       </c>
       <c r="D70" s="2"/>
+      <c r="F70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
@@ -1528,6 +1654,9 @@
         <v>0</v>
       </c>
       <c r="D73" s="2"/>
+      <c r="F73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
@@ -1615,6 +1744,9 @@
         <v>0</v>
       </c>
       <c r="D79" s="2"/>
+      <c r="F79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -1657,6 +1789,9 @@
         <v>-3</v>
       </c>
       <c r="D82" s="2"/>
+      <c r="G82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
@@ -1669,6 +1804,9 @@
         <v>0</v>
       </c>
       <c r="D83" s="2"/>
+      <c r="F83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
@@ -1831,6 +1969,9 @@
         <v>0</v>
       </c>
       <c r="D94" s="2"/>
+      <c r="F94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -1933,6 +2074,30 @@
         <v>-2</v>
       </c>
       <c r="D101" s="2"/>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102">
+        <f>SUM(E2:E100)</f>
+        <v>39</v>
+      </c>
+      <c r="F102">
+        <f>SUM(F2:F101)</f>
+        <v>14</v>
+      </c>
+      <c r="G102">
+        <f>SUM(G2:G101)</f>
+        <v>12</v>
+      </c>
+      <c r="H102">
+        <f>SUM(H2:H101)</f>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1941,16 +2106,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A166C3-E869-3F4F-915C-CBA4B2D04232}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
   </cols>
@@ -1991,6 +2156,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
